--- a/data/trans_orig/P6702-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>54307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40302</v>
+        <v>41245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67129</v>
+        <v>67936</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1793476994149723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1330964432758039</v>
+        <v>0.1362114020848854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2216916179033158</v>
+        <v>0.2243554997873023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -764,19 +764,19 @@
         <v>43222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32226</v>
+        <v>31347</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57577</v>
+        <v>56046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2223213415682003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1657617439472157</v>
+        <v>0.1612377129800482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2961545335494014</v>
+        <v>0.2882799103847863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -785,19 +785,19 @@
         <v>97529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80145</v>
+        <v>80726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116247</v>
+        <v>115235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.196150587386584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1611872508893748</v>
+        <v>0.1623549333234134</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2337951552586543</v>
+        <v>0.2317589877262475</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>49465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37125</v>
+        <v>37725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63967</v>
+        <v>66343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1633586359316004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1226059208058207</v>
+        <v>0.1245869283061527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2112491624950082</v>
+        <v>0.2190969276229387</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -835,19 +835,19 @@
         <v>34791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25250</v>
+        <v>25023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47099</v>
+        <v>47263</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1789543414554362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1298790134956334</v>
+        <v>0.1287113103067678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2422592332523705</v>
+        <v>0.2431066769384328</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -856,19 +856,19 @@
         <v>84257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68568</v>
+        <v>67250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103162</v>
+        <v>103237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1694566271565675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1379037510084579</v>
+        <v>0.1352519547253494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2074786640287412</v>
+        <v>0.2076300314024026</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>109279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93528</v>
+        <v>93120</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127651</v>
+        <v>127139</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3608923586464454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3088734681322182</v>
+        <v>0.30752823253884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4215660616728723</v>
+        <v>0.4198744292498813</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -906,19 +906,19 @@
         <v>58943</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46304</v>
+        <v>47151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73415</v>
+        <v>74050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3031817108820625</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2381707334955831</v>
+        <v>0.2425304423443028</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3776243766204175</v>
+        <v>0.3808900194576061</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -927,19 +927,19 @@
         <v>168222</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>146021</v>
+        <v>145995</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188858</v>
+        <v>190973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3383272349900315</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2936756352502768</v>
+        <v>0.2936236418064231</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.379829722434082</v>
+        <v>0.3840847841061146</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>63197</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49482</v>
+        <v>49299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78814</v>
+        <v>77840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2087079478134505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1634128043876919</v>
+        <v>0.162809539380901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2602798965567213</v>
+        <v>0.257063401942584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>32011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20902</v>
+        <v>21599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44992</v>
+        <v>43840</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1646529985941305</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1075123092635668</v>
+        <v>0.1110969113896963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2314223421316371</v>
+        <v>0.225500217989503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -998,19 +998,19 @@
         <v>95208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77992</v>
+        <v>78056</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113823</v>
+        <v>115208</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1914822639003249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1568577592169691</v>
+        <v>0.1569861339455391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2289203146203301</v>
+        <v>0.2317062636764801</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>26554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17685</v>
+        <v>17639</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38445</v>
+        <v>38765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0876933581935314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05840401776830043</v>
+        <v>0.0582518815311294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.126964988072524</v>
+        <v>0.1280216026481589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
         <v>25447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17068</v>
+        <v>17053</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35631</v>
+        <v>36502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1308896075001706</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08778984351959707</v>
+        <v>0.08771242008512596</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1832758492718321</v>
+        <v>0.1877548238299451</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -1069,19 +1069,19 @@
         <v>52001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38385</v>
+        <v>38086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67890</v>
+        <v>67862</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1045832865664922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07719985791991538</v>
+        <v>0.07659765648116747</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1365396229006245</v>
+        <v>0.136483101545243</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>42466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31004</v>
+        <v>31304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56596</v>
+        <v>56921</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1648958764583457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1203880536323735</v>
+        <v>0.1215548689812893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2197613847886586</v>
+        <v>0.2210258444242884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1194,19 +1194,19 @@
         <v>41529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30546</v>
+        <v>29550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53658</v>
+        <v>54000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2486236445751576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1828699771783791</v>
+        <v>0.1769091001237532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3212374653649924</v>
+        <v>0.3232882608582802</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1215,19 +1215,19 @@
         <v>83995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67307</v>
+        <v>67115</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103516</v>
+        <v>102726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1978364946663727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1585312056328115</v>
+        <v>0.1580777321792513</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.243816407815138</v>
+        <v>0.2419551170372123</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>26156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16821</v>
+        <v>17191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40762</v>
+        <v>38694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1015643745216247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06531549121920195</v>
+        <v>0.06675392222129033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1582777351928146</v>
+        <v>0.1502492665654048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1265,19 +1265,19 @@
         <v>25823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17171</v>
+        <v>17744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36481</v>
+        <v>36565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.154598873317598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1028006110325542</v>
+        <v>0.1062303449874422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2184020071272863</v>
+        <v>0.2189083120074132</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -1286,19 +1286,19 @@
         <v>51980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37902</v>
+        <v>39699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66564</v>
+        <v>67615</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1224294855353917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08927301106625017</v>
+        <v>0.09350494987487906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1567816267274383</v>
+        <v>0.1592563482955988</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>95635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80155</v>
+        <v>78717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>113617</v>
+        <v>113539</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3713515619948571</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3112420415253621</v>
+        <v>0.3056588366331979</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4411780154822956</v>
+        <v>0.4408746668308467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1336,19 +1336,19 @@
         <v>61764</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49464</v>
+        <v>48511</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75735</v>
+        <v>75498</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3697693263208666</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2961268203600648</v>
+        <v>0.2904257539238671</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4534086527126134</v>
+        <v>0.4519870385352845</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -1357,19 +1357,19 @@
         <v>157399</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138079</v>
+        <v>136260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>179572</v>
+        <v>178137</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3707290705272794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3252237236319376</v>
+        <v>0.3209396995226033</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4229530976532063</v>
+        <v>0.4195741905330306</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>46341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34899</v>
+        <v>33688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61266</v>
+        <v>60100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1799415836623188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1355142167834292</v>
+        <v>0.1308127452906089</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2378967312346717</v>
+        <v>0.2333675683500827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1407,19 +1407,19 @@
         <v>21119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13096</v>
+        <v>13115</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31471</v>
+        <v>31413</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1264353938477999</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07839986224468201</v>
+        <v>0.07851451772385137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.188410975974256</v>
+        <v>0.1880596286984486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1428,19 +1428,19 @@
         <v>67460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53859</v>
+        <v>53327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86347</v>
+        <v>83357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1588908974910677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1268560000599713</v>
+        <v>0.1256032730023251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2033769397279612</v>
+        <v>0.1963330042377729</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>46934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33383</v>
+        <v>34215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62263</v>
+        <v>61958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1822466033628538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.129628104137792</v>
+        <v>0.1328573773645753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2417663835934343</v>
+        <v>0.2405826985339536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1478,19 +1478,19 @@
         <v>16799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9661</v>
+        <v>9798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27180</v>
+        <v>26737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1005727619385779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0578388066754554</v>
+        <v>0.05865608637013738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1627213457219215</v>
+        <v>0.1600702438625741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1499,19 +1499,19 @@
         <v>63733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48156</v>
+        <v>49100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81275</v>
+        <v>83059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1501140517798885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1134240758881433</v>
+        <v>0.1156468350568609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1914306669628797</v>
+        <v>0.1956329264253168</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>39434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28947</v>
+        <v>28599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51647</v>
+        <v>51861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1405386596247783</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1031644134587237</v>
+        <v>0.1019235577182449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1840673586172801</v>
+        <v>0.1848296750620305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1624,19 +1624,19 @@
         <v>19504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12067</v>
+        <v>12244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27871</v>
+        <v>29043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1760427447393516</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1089178780615161</v>
+        <v>0.1105162363768465</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.251571052794362</v>
+        <v>0.2621486494882059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -1645,19 +1645,19 @@
         <v>58937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45221</v>
+        <v>45819</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72297</v>
+        <v>73321</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1505889380840568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1155427639886477</v>
+        <v>0.1170715230588111</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1847224821089558</v>
+        <v>0.187340493185977</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>54383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42140</v>
+        <v>41723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70953</v>
+        <v>69718</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1938169082479151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.150183601466473</v>
+        <v>0.148696181480647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2528718800115377</v>
+        <v>0.2484690664476518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1695,19 +1695,19 @@
         <v>16329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9418</v>
+        <v>9409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26638</v>
+        <v>24379</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1473860047052064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08501160349550435</v>
+        <v>0.08492714404498471</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2404362218070575</v>
+        <v>0.2200470263082297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -1716,19 +1716,19 @@
         <v>70712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57278</v>
+        <v>57654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89895</v>
+        <v>87374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1806735331063153</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1463483537687132</v>
+        <v>0.1473088792539327</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2296876019702426</v>
+        <v>0.2232464773647745</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>95737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79828</v>
+        <v>79948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114001</v>
+        <v>113370</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3411984052470428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2845013298317793</v>
+        <v>0.2849293139498825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4062905651599931</v>
+        <v>0.4040397022463212</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1766,19 +1766,19 @@
         <v>32622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23725</v>
+        <v>23656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42655</v>
+        <v>43210</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2944516332231653</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2141435607702919</v>
+        <v>0.2135268214423194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3850135229641932</v>
+        <v>0.3900236696954021</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -1787,19 +1787,19 @@
         <v>128359</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>111572</v>
+        <v>110457</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>148682</v>
+        <v>145605</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3279656159948692</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2850732449222751</v>
+        <v>0.2822258973040205</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.379893258493354</v>
+        <v>0.372029745918918</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>67882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53682</v>
+        <v>54712</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82657</v>
+        <v>83917</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2419245906251342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1913196956724812</v>
+        <v>0.1949881860817789</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2945845679748</v>
+        <v>0.2990743010145683</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1837,19 +1837,19 @@
         <v>25810</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17387</v>
+        <v>17803</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35667</v>
+        <v>36920</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2329687325645562</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1569353997933826</v>
+        <v>0.1606913330026815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3219349547336225</v>
+        <v>0.3332499289759169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1858,19 +1858,19 @@
         <v>93692</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78980</v>
+        <v>77754</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113214</v>
+        <v>111431</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2393894213041921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.201800172641933</v>
+        <v>0.1986661928593392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2892698812238869</v>
+        <v>0.2847128443788511</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>23155</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15390</v>
+        <v>14622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33568</v>
+        <v>34779</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08252143625512975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05484751962786846</v>
+        <v>0.05211064448729787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1196335887108758</v>
+        <v>0.1239513129524702</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1908,19 +1908,19 @@
         <v>16524</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10252</v>
+        <v>9499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26258</v>
+        <v>25073</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1491508847677205</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09253809604348005</v>
+        <v>0.08574250439282244</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.237010916646594</v>
+        <v>0.2263149679884953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1929,19 +1929,19 @@
         <v>39679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53337</v>
+        <v>54179</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1013824915105666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07409660448166573</v>
+        <v>0.07299398438712813</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1362805647230834</v>
+        <v>0.138432158925003</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>89433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73360</v>
+        <v>71301</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>109042</v>
+        <v>105711</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2121015307274091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1739838971263485</v>
+        <v>0.1691011070462363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2586078030018111</v>
+        <v>0.2507080083148431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2054,19 +2054,19 @@
         <v>66566</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53915</v>
+        <v>53391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83966</v>
+        <v>82748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2227117656697889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1803845933964784</v>
+        <v>0.1786317411808703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2809277132378246</v>
+        <v>0.2768525727262446</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>145</v>
@@ -2075,19 +2075,19 @@
         <v>155999</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135260</v>
+        <v>134666</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179872</v>
+        <v>180350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2165027992886704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1877197325335597</v>
+        <v>0.1868965489292371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2496354445971726</v>
+        <v>0.2502984362737912</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>63779</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>48516</v>
+        <v>47652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79241</v>
+        <v>79905</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1512594376662306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1150619466231568</v>
+        <v>0.1130136303431274</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1879297847892686</v>
+        <v>0.1895053845570161</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -2125,19 +2125,19 @@
         <v>45146</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32899</v>
+        <v>32884</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59344</v>
+        <v>60115</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1510457717362135</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1100702432010247</v>
+        <v>0.1100219483882842</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1985485104990852</v>
+        <v>0.2011274349560854</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -2146,19 +2146,19 @@
         <v>108925</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>91029</v>
+        <v>88907</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>133209</v>
+        <v>128696</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1511708061566077</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.126335037571024</v>
+        <v>0.1233900664644184</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1848735129546951</v>
+        <v>0.1786101868242037</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>129146</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>111035</v>
+        <v>110349</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>150186</v>
+        <v>150694</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3062883296050227</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2633348431281158</v>
+        <v>0.2617066564668716</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.356185835922753</v>
+        <v>0.3573910865649649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -2196,19 +2196,19 @@
         <v>101550</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83480</v>
+        <v>85159</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116329</v>
+        <v>118524</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3397583205093218</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2793012583492306</v>
+        <v>0.2849179460094406</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3892032404674947</v>
+        <v>0.3965477872659161</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>218</v>
@@ -2217,19 +2217,19 @@
         <v>230697</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>207973</v>
+        <v>203866</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>258970</v>
+        <v>257198</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3201721332637334</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2886353351350471</v>
+        <v>0.2829353130702673</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3594112472730015</v>
+        <v>0.3569513646132005</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>86196</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69933</v>
+        <v>70956</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103997</v>
+        <v>104373</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2044247970335058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1658565514302828</v>
+        <v>0.1682817623750302</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2466422715931495</v>
+        <v>0.2475340029220907</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2267,19 +2267,19 @@
         <v>59627</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46672</v>
+        <v>46936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75682</v>
+        <v>75506</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1994941123853308</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.156149492525605</v>
+        <v>0.1570331342708673</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2532090362743614</v>
+        <v>0.2526210230638083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>142</v>
@@ -2288,19 +2288,19 @@
         <v>145823</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>123095</v>
+        <v>124966</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>167048</v>
+        <v>169431</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2023794825380815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1708377524992506</v>
+        <v>0.1734332578474927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2318373103461585</v>
+        <v>0.2351442859281758</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>53097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41230</v>
+        <v>39647</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>69229</v>
+        <v>67704</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1259259049678318</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09778185299105745</v>
+        <v>0.09402751546320286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1641849473643995</v>
+        <v>0.1605686958090707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2338,19 +2338,19 @@
         <v>26000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16853</v>
+        <v>17333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36685</v>
+        <v>36932</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08699002969934508</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05638529171935142</v>
+        <v>0.05799181564056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1227374990473785</v>
+        <v>0.1235636724494921</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -2359,19 +2359,19 @@
         <v>79097</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65022</v>
+        <v>63604</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98642</v>
+        <v>98202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.109774778752907</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09024048057092959</v>
+        <v>0.08827271960177006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.136900207763341</v>
+        <v>0.1362888314964666</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>20791</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13300</v>
+        <v>13626</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30927</v>
+        <v>30707</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1359862097628441</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0869909868063598</v>
+        <v>0.08912408610647275</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2022876016288343</v>
+        <v>0.2008486649435468</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -2484,19 +2484,19 @@
         <v>40273</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30146</v>
+        <v>30721</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53365</v>
+        <v>53252</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2333635726891486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1746845456060186</v>
+        <v>0.1780182199147374</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3092271433825272</v>
+        <v>0.308571993016025</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>57</v>
@@ -2505,19 +2505,19 @@
         <v>61063</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47490</v>
+        <v>48347</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>76677</v>
+        <v>76273</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1876199492160031</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1459161900573149</v>
+        <v>0.1485477762477301</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2355925008770064</v>
+        <v>0.2343529250106191</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>16862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10333</v>
+        <v>10481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26394</v>
+        <v>25861</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1102889237462025</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06758666491731831</v>
+        <v>0.06855179183546131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1726379252520005</v>
+        <v>0.1691470726492696</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2555,19 +2555,19 @@
         <v>28635</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19548</v>
+        <v>19502</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40117</v>
+        <v>40497</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1659265906704647</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.113269724781282</v>
+        <v>0.1130040884124233</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2324583613403335</v>
+        <v>0.2346621546917699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -2576,19 +2576,19 @@
         <v>45497</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34250</v>
+        <v>33969</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60656</v>
+        <v>60192</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1397904496801418</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1052347954586541</v>
+        <v>0.1043705486992468</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1863681787386714</v>
+        <v>0.1849413362239541</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>56874</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45079</v>
+        <v>44169</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>68363</v>
+        <v>69255</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3719959213492298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2948501139609916</v>
+        <v>0.2888987098759535</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4471416497335833</v>
+        <v>0.4529787767056535</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -2626,19 +2626,19 @@
         <v>53366</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41040</v>
+        <v>40804</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>66115</v>
+        <v>65448</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3092317189921511</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2378086543738973</v>
+        <v>0.236440662212887</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3831070710244926</v>
+        <v>0.3792456648669043</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>104</v>
@@ -2647,19 +2647,19 @@
         <v>110239</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>93000</v>
+        <v>93113</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>128116</v>
+        <v>128311</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3387155944426226</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2857469336387961</v>
+        <v>0.286095349103772</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3936428758391243</v>
+        <v>0.3942422648989814</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>29824</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20564</v>
+        <v>20652</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41216</v>
+        <v>41534</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1950741209106899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1345027430392068</v>
+        <v>0.1350812190747582</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2695861834753295</v>
+        <v>0.2716639546693541</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2697,19 +2697,19 @@
         <v>30832</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20886</v>
+        <v>21232</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42310</v>
+        <v>42801</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1786593224768479</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1210247412408832</v>
+        <v>0.1230333683059892</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2451701171573073</v>
+        <v>0.2480125519414292</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>56</v>
@@ -2718,19 +2718,19 @@
         <v>60657</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>47368</v>
+        <v>47527</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76554</v>
+        <v>75924</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1863702764026952</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1455394844525619</v>
+        <v>0.1460284445941399</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2352169549885446</v>
+        <v>0.2332795129010159</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>28537</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19229</v>
+        <v>19622</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39031</v>
+        <v>40153</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1866548242310337</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.125769356558988</v>
+        <v>0.1283421270317108</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2552932405098907</v>
+        <v>0.2626321273985761</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2768,19 +2768,19 @@
         <v>19470</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11656</v>
+        <v>12114</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29382</v>
+        <v>29101</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1128187951713876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06753958209197578</v>
+        <v>0.07019818911305063</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1702572877956132</v>
+        <v>0.1686304200526321</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -2789,19 +2789,19 @@
         <v>48007</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33351</v>
+        <v>36130</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>61458</v>
+        <v>63623</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1475037302585373</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1024720291834793</v>
+        <v>0.1110122526643963</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1888312895868006</v>
+        <v>0.1954840007948703</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>246430</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>216153</v>
+        <v>215856</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>276165</v>
+        <v>276089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1740985186868271</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.152708284107945</v>
+        <v>0.1524983350349379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1951057955520313</v>
+        <v>0.1950517870909875</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>194</v>
@@ -2914,19 +2914,19 @@
         <v>211094</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>186108</v>
+        <v>185923</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>240552</v>
+        <v>237974</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2236867624936398</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1972101398552696</v>
+        <v>0.1970143470560515</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2549023250806006</v>
+        <v>0.252170739666182</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>425</v>
@@ -2935,19 +2935,19 @@
         <v>457524</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>417481</v>
+        <v>420155</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>494585</v>
+        <v>500079</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1939345869696202</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1769613529808393</v>
+        <v>0.1780948481349521</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.209644044453437</v>
+        <v>0.2119727850144158</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>210645</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>181249</v>
+        <v>185286</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>237749</v>
+        <v>241190</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1488170583776879</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1280494875584561</v>
+        <v>0.1309013552773027</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1679658188693115</v>
+        <v>0.1703962469644555</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>139</v>
@@ -2985,19 +2985,19 @@
         <v>150724</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129279</v>
+        <v>130054</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>176442</v>
+        <v>175903</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1597157665359947</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.13699096628501</v>
+        <v>0.1378124141860756</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1869681499879935</v>
+        <v>0.1863962202960176</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>332</v>
@@ -3006,19 +3006,19 @@
         <v>361369</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>324859</v>
+        <v>327589</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>399507</v>
+        <v>396793</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1531767110418281</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1377007139348952</v>
+        <v>0.1388581342839328</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1693426077191864</v>
+        <v>0.1681922011807405</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>486671</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>450174</v>
+        <v>451261</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>520550</v>
+        <v>524113</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3438247591395452</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.318040171759042</v>
+        <v>0.3188082808667296</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3677593718766095</v>
+        <v>0.3702767859348624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>288</v>
@@ -3056,19 +3056,19 @@
         <v>308245</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>280017</v>
+        <v>279155</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>336461</v>
+        <v>333798</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3266337323020794</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2967219126136555</v>
+        <v>0.29580853342583</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3565323107988631</v>
+        <v>0.3537108042646108</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>748</v>
@@ -3077,19 +3077,19 @@
         <v>794916</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>749999</v>
+        <v>748317</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>844038</v>
+        <v>846321</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3369480812009639</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3179086214021571</v>
+        <v>0.3171957713698899</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3577696130108832</v>
+        <v>0.3587374930485518</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>293440</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>264619</v>
+        <v>265412</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>324089</v>
+        <v>323968</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2073102137199298</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1869490064450363</v>
+        <v>0.18750880324723</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2289629895026973</v>
+        <v>0.2288779797924783</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>154</v>
@@ -3127,19 +3127,19 @@
         <v>169399</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>145129</v>
+        <v>146469</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>194824</v>
+        <v>194652</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1795048538325606</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1537862921084187</v>
+        <v>0.1552070995842156</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2064468015172462</v>
+        <v>0.2062638563347709</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>437</v>
@@ -3148,19 +3148,19 @@
         <v>462839</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>423296</v>
+        <v>423109</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>503134</v>
+        <v>506426</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1961876375806692</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1794263056616922</v>
+        <v>0.1793467446018541</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2132679058232806</v>
+        <v>0.2146630916016516</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>178277</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>153152</v>
+        <v>153592</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>206186</v>
+        <v>206161</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.12594945007601</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.108199455710901</v>
+        <v>0.1085102001004065</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1456669726714445</v>
+        <v>0.1456488146437758</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>96</v>
@@ -3198,19 +3198,19 @@
         <v>104240</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>83575</v>
+        <v>88361</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>124482</v>
+        <v>128046</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1104588848357255</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08856057096973642</v>
+        <v>0.09363245071211686</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1319081636293002</v>
+        <v>0.1356841270629922</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>259</v>
@@ -3219,19 +3219,19 @@
         <v>282517</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>252063</v>
+        <v>250642</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>315029</v>
+        <v>317341</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1197529832069186</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1068441806337643</v>
+        <v>0.1062418276779153</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1335341470918916</v>
+        <v>0.1345142111266728</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>54631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40912</v>
+        <v>41596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70376</v>
+        <v>68704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1979014295626611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1482046600286436</v>
+        <v>0.1506824147499032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2549382388958228</v>
+        <v>0.2488802204050872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -3585,19 +3585,19 @@
         <v>49895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37639</v>
+        <v>38751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63460</v>
+        <v>65283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2329648552413247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1757386707296003</v>
+        <v>0.1809317084704094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.296299842964655</v>
+        <v>0.3048140204567231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -3606,19 +3606,19 @@
         <v>104526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87262</v>
+        <v>86703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125410</v>
+        <v>125733</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.213220225675394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1780024699471817</v>
+        <v>0.1768639044120597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2558196958129155</v>
+        <v>0.2564793300833054</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>66169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53263</v>
+        <v>53478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81590</v>
+        <v>83153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2396958008546791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1929442103388332</v>
+        <v>0.1937232983768696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2955605809840795</v>
+        <v>0.3012228513585903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3656,19 +3656,19 @@
         <v>32944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23161</v>
+        <v>23685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44696</v>
+        <v>45108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1538201176521624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1081403059138122</v>
+        <v>0.1105898099281515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2086912158221655</v>
+        <v>0.2106117266556481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -3677,19 +3677,19 @@
         <v>99113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82790</v>
+        <v>81004</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118610</v>
+        <v>117477</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2021777301996064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1688814386595884</v>
+        <v>0.1652374390899005</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.241949854186852</v>
+        <v>0.2396374530364764</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>87574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71362</v>
+        <v>73078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103644</v>
+        <v>104550</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3172372951082478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2585085229313978</v>
+        <v>0.2647246132725432</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3754499385250687</v>
+        <v>0.3787327250859718</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -3727,19 +3727,19 @@
         <v>72487</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60254</v>
+        <v>58426</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88808</v>
+        <v>85410</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3384473884460816</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2813340934625144</v>
+        <v>0.2727953578084027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.41465225452783</v>
+        <v>0.3987859455160799</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>152</v>
@@ -3748,19 +3748,19 @@
         <v>160061</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140809</v>
+        <v>139043</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>180543</v>
+        <v>180870</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3265037341137219</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.28723226996492</v>
+        <v>0.2836302001778982</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3682845355967773</v>
+        <v>0.3689525266231066</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>50713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38755</v>
+        <v>38942</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66485</v>
+        <v>66256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1837064721056318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1403905827353718</v>
+        <v>0.1410657672487038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2408425755413146</v>
+        <v>0.2400101130244918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3798,19 +3798,19 @@
         <v>39926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28717</v>
+        <v>29161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52394</v>
+        <v>53251</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1864187116899617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1340843026540151</v>
+        <v>0.136157728843543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2446307164937579</v>
+        <v>0.24863402960785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -3819,19 +3819,19 @@
         <v>90639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74133</v>
+        <v>74269</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110544</v>
+        <v>112382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1848914175123356</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1512227116987864</v>
+        <v>0.1515000778141728</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2254957605616256</v>
+        <v>0.229245013535868</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>16966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10365</v>
+        <v>10152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27539</v>
+        <v>26971</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06145900236878017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03754747506422821</v>
+        <v>0.03677446185590474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09975828872594512</v>
+        <v>0.09770277687439614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -3869,19 +3869,19 @@
         <v>18922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11618</v>
+        <v>11961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27721</v>
+        <v>27226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0883489269704697</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05424675284188994</v>
+        <v>0.05584579392060871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1294325006178432</v>
+        <v>0.12712310698142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -3890,19 +3890,19 @@
         <v>35888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25499</v>
+        <v>25350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49129</v>
+        <v>49149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07320689249894217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0520138835298054</v>
+        <v>0.0517108950968193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1002171604413685</v>
+        <v>0.1002584554627413</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>36375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24982</v>
+        <v>25715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48618</v>
+        <v>50672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1495439554473336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.102706598564299</v>
+        <v>0.1057194706144158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1998808135568771</v>
+        <v>0.2083254707085238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4015,19 +4015,19 @@
         <v>32601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23546</v>
+        <v>23319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44676</v>
+        <v>44758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.172330641720461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1244665536667352</v>
+        <v>0.1232652161774191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.236162902237782</v>
+        <v>0.2365923858658167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -4036,19 +4036,19 @@
         <v>68975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54811</v>
+        <v>54213</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84804</v>
+        <v>86597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1595128893494603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1267568795994026</v>
+        <v>0.1253734512410189</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1961172291057381</v>
+        <v>0.2002638127694075</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>43673</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32050</v>
+        <v>32308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58985</v>
+        <v>57732</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1795482773312317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1317632066620478</v>
+        <v>0.1328264022199224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2424989338905002</v>
+        <v>0.2373470130011391</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -4086,19 +4086,19 @@
         <v>34659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25389</v>
+        <v>24812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46252</v>
+        <v>44814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1832100200105367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1342063138412394</v>
+        <v>0.131156136385085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2444942529240844</v>
+        <v>0.2368891870072828</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -4107,19 +4107,19 @@
         <v>78332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62663</v>
+        <v>63514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95630</v>
+        <v>96508</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1811502509705334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1449154715818169</v>
+        <v>0.1468837589483937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2211541333666312</v>
+        <v>0.2231839111646236</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>93281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77031</v>
+        <v>76991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110013</v>
+        <v>109790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3835002838405198</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3166906570990792</v>
+        <v>0.3165277877588543</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4522878386008268</v>
+        <v>0.4513701923167199</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -4157,19 +4157,19 @@
         <v>59873</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46864</v>
+        <v>48270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72809</v>
+        <v>74042</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3164910991295108</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2477283368870739</v>
+        <v>0.2551588827974074</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3848737259928512</v>
+        <v>0.3913921849606981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -4178,19 +4178,19 @@
         <v>153154</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>133957</v>
+        <v>132994</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>173267</v>
+        <v>175313</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3541844752489373</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3097898893004414</v>
+        <v>0.3075634657968489</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4006984223927186</v>
+        <v>0.4054292562891206</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>43058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31450</v>
+        <v>30264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56231</v>
+        <v>55788</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1770208226507978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1292979126843639</v>
+        <v>0.1244235830197046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2311789192293359</v>
+        <v>0.2293578972560938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4228,19 +4228,19 @@
         <v>45841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33905</v>
+        <v>35859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58611</v>
+        <v>60453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2423211714486843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1792237709789959</v>
+        <v>0.1895532364295026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3098201379037266</v>
+        <v>0.3195591272946524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -4249,19 +4249,19 @@
         <v>88899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72690</v>
+        <v>72507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107206</v>
+        <v>106274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2055890336293132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1681040508591279</v>
+        <v>0.1676797950179748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2479242290121729</v>
+        <v>0.2457693688408555</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>26850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17863</v>
+        <v>16939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38310</v>
+        <v>37590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1103866607301171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07343909251677165</v>
+        <v>0.06963957438683568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.157501354600222</v>
+        <v>0.1545397391219901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4299,19 +4299,19 @@
         <v>16202</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9886</v>
+        <v>9108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24739</v>
+        <v>25638</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08564706769080717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05226017225788976</v>
+        <v>0.04814374434989849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1307748651348528</v>
+        <v>0.1355264132989749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -4320,19 +4320,19 @@
         <v>43052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31093</v>
+        <v>32030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58724</v>
+        <v>58380</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09956335080175586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07190641119845427</v>
+        <v>0.07407171690167814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1358059376649933</v>
+        <v>0.1350106734326493</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>23005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14477</v>
+        <v>14800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34496</v>
+        <v>34345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1063427393857977</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06692397633316978</v>
+        <v>0.06841763946035416</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1594618206782471</v>
+        <v>0.1587642800237332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4445,19 +4445,19 @@
         <v>7092</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3478</v>
+        <v>2894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13533</v>
+        <v>13335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1089131070023126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05341022836858242</v>
+        <v>0.04443597755870085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2078292846569919</v>
+        <v>0.204782265343324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -4466,19 +4466,19 @@
         <v>30097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20468</v>
+        <v>20566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43470</v>
+        <v>42939</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1069374489130174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07272568137902426</v>
+        <v>0.07307191928646758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1544534644065086</v>
+        <v>0.1525668595661351</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>31140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21782</v>
+        <v>22287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43402</v>
+        <v>43364</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1439479915199315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1006906032781408</v>
+        <v>0.1030244145915086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2006333873001203</v>
+        <v>0.2004568668386101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -4516,19 +4516,19 @@
         <v>14652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8576</v>
+        <v>8427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22268</v>
+        <v>21620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2250005219135047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1317008585378322</v>
+        <v>0.1294159308645674</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3419688349160913</v>
+        <v>0.3320060044879551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -4537,19 +4537,19 @@
         <v>45791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34444</v>
+        <v>34702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58511</v>
+        <v>60364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1627012281078099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1223836278704017</v>
+        <v>0.1232995317314414</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.207896616487332</v>
+        <v>0.2144804374733873</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>84470</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70675</v>
+        <v>68960</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99344</v>
+        <v>98240</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3904782441612357</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3267066243287048</v>
+        <v>0.3187784830911155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4592369892720654</v>
+        <v>0.4541307131216576</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -4587,19 +4587,19 @@
         <v>23253</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16430</v>
+        <v>15563</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31325</v>
+        <v>31778</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.357086328893382</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.252304596203215</v>
+        <v>0.238991641639792</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4810522142719525</v>
+        <v>0.488006477882771</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -4608,19 +4608,19 @@
         <v>107723</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93170</v>
+        <v>92721</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124208</v>
+        <v>124319</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3827523103242571</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3310456318124159</v>
+        <v>0.3294497207397488</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4413271903742824</v>
+        <v>0.4417190451106862</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>53431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40950</v>
+        <v>40741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67696</v>
+        <v>66078</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2469955752389741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1892988653886779</v>
+        <v>0.1883332027025887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3129368568324389</v>
+        <v>0.3054548955693753</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4658,19 +4658,19 @@
         <v>12884</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6433</v>
+        <v>7563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20412</v>
+        <v>20705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1978562338001837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09879231399915522</v>
+        <v>0.1161407863726157</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3134685763552034</v>
+        <v>0.3179601355863924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -4679,19 +4679,19 @@
         <v>66315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52862</v>
+        <v>52761</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81511</v>
+        <v>82252</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2356261375261789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1878256058465568</v>
+        <v>0.1874643022630365</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2896171623636732</v>
+        <v>0.2922499021628194</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>24279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16026</v>
+        <v>15987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34572</v>
+        <v>33770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1122354496940609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07408233549929187</v>
+        <v>0.07390434284660391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1598162721668109</v>
+        <v>0.1561089927976435</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4729,19 +4729,19 @@
         <v>7237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2979</v>
+        <v>2904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13239</v>
+        <v>13998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.111143808390617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04575289007885523</v>
+        <v>0.04459514361945913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2033076257285178</v>
+        <v>0.2149582701194228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4750,19 +4750,19 @@
         <v>31517</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22171</v>
+        <v>21939</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43990</v>
+        <v>43051</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1119828751287367</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07877676871744783</v>
+        <v>0.07795158905036269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1563003169997131</v>
+        <v>0.1529654523772877</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>82919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66620</v>
+        <v>67489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100159</v>
+        <v>99484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1700206299526538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1365999319209285</v>
+        <v>0.1383818245243888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2053692150206143</v>
+        <v>0.2039853820039493</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -4875,19 +4875,19 @@
         <v>72875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58583</v>
+        <v>58486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89466</v>
+        <v>89364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1996891424027021</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1605256643545489</v>
+        <v>0.16026208371824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2451500390000555</v>
+        <v>0.2448726044227159</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -4896,19 +4896,19 @@
         <v>155794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>134861</v>
+        <v>135637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183099</v>
+        <v>179809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1827191251627561</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1581679444367781</v>
+        <v>0.1590783151221177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2147428147406726</v>
+        <v>0.2108844540229457</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>80341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66796</v>
+        <v>64989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100298</v>
+        <v>98856</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1647339087974615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1369607629251831</v>
+        <v>0.1332564077670281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2056539361947838</v>
+        <v>0.2026981831436359</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>57</v>
@@ -4946,19 +4946,19 @@
         <v>57563</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44812</v>
+        <v>44786</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72419</v>
+        <v>72666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1577307220959285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1227916766843275</v>
+        <v>0.1227195457632362</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1984397340836721</v>
+        <v>0.1991166803739196</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>133</v>
@@ -4967,19 +4967,19 @@
         <v>137903</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>117655</v>
+        <v>118843</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>160885</v>
+        <v>160305</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1617364571074047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.137988215409473</v>
+        <v>0.1393819216995066</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1886903660269833</v>
+        <v>0.1880098223433108</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>147450</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126337</v>
+        <v>128182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166964</v>
+        <v>169573</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3023370713541005</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2590458513924754</v>
+        <v>0.2628289979888195</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3423483774608663</v>
+        <v>0.3476993225455957</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>111</v>
@@ -5017,19 +5017,19 @@
         <v>109488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92348</v>
+        <v>92862</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127056</v>
+        <v>126351</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3000151283714255</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2530473906885131</v>
+        <v>0.2544570585024116</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3481536638213519</v>
+        <v>0.346222829535026</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>253</v>
@@ -5038,19 +5038,19 @@
         <v>256938</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>230457</v>
+        <v>231241</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>281438</v>
+        <v>284757</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3013432506530029</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2702861920503156</v>
+        <v>0.2712048240795324</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.330077978524828</v>
+        <v>0.3339700925362481</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>119897</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100276</v>
+        <v>100872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138701</v>
+        <v>140555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2458412146630782</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.205608947819206</v>
+        <v>0.2068320430081983</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2843976732085877</v>
+        <v>0.2881988956797764</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -5088,19 +5088,19 @@
         <v>85904</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71495</v>
+        <v>70677</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103307</v>
+        <v>102786</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.235389615358131</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1959078983024915</v>
+        <v>0.1936667363800693</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2830775897632543</v>
+        <v>0.2816501542942633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>196</v>
@@ -5109,19 +5109,19 @@
         <v>205800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>181104</v>
+        <v>179422</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230736</v>
+        <v>232776</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2413677991544566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2124034170346887</v>
+        <v>0.2104300533302409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2706127720689359</v>
+        <v>0.2730049884861996</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>57094</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43625</v>
+        <v>43904</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72860</v>
+        <v>73824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.117067175232706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08944990214956697</v>
+        <v>0.09002309266006542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1493946484417665</v>
+        <v>0.1513718680955196</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -5159,19 +5159,19 @@
         <v>39113</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28570</v>
+        <v>28762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51645</v>
+        <v>53073</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1071753917718129</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07828733224785066</v>
+        <v>0.0788115087840788</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1415163268941112</v>
+        <v>0.1454294330901945</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -5180,19 +5180,19 @@
         <v>96206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77080</v>
+        <v>77864</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114860</v>
+        <v>115434</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1128333679223797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09040101389527279</v>
+        <v>0.09132051155295738</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1347102325295524</v>
+        <v>0.1353837519879388</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>34947</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25269</v>
+        <v>24297</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47086</v>
+        <v>46593</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1810544389119045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1309114647807733</v>
+        <v>0.1258784519547108</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2439395182315932</v>
+        <v>0.2413857501127901</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -5305,19 +5305,19 @@
         <v>38895</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27685</v>
+        <v>27645</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50954</v>
+        <v>50645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1968162466878195</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1400909652928687</v>
+        <v>0.1398910208580171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2578382363110077</v>
+        <v>0.2562784440126241</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -5326,19 +5326,19 @@
         <v>73842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59226</v>
+        <v>59804</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>90419</v>
+        <v>91209</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1890280899400032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1516136771156734</v>
+        <v>0.1530935803771069</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2314632879721014</v>
+        <v>0.2334856873576574</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>33723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23741</v>
+        <v>23713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46383</v>
+        <v>45891</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1747081212515977</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1229947740301524</v>
+        <v>0.1228500193050045</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2402971410148696</v>
+        <v>0.237748967230391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -5376,19 +5376,19 @@
         <v>33731</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24340</v>
+        <v>23694</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45699</v>
+        <v>45107</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1706874200975088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.123166193412196</v>
+        <v>0.1198953339826395</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.23124973534544</v>
+        <v>0.2282548533198419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>63</v>
@@ -5397,19 +5397,19 @@
         <v>67453</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>52556</v>
+        <v>53343</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81457</v>
+        <v>82939</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1726741116794237</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1345375793624974</v>
+        <v>0.1365528126174582</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.208522156831917</v>
+        <v>0.2123152394445029</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>62800</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49933</v>
+        <v>50872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>77186</v>
+        <v>77698</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3253532817979111</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2586903936695632</v>
+        <v>0.2635547027302443</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3998812351435236</v>
+        <v>0.4025358422928673</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>77</v>
@@ -5447,19 +5447,19 @@
         <v>78533</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65124</v>
+        <v>65001</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>92893</v>
+        <v>92743</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.397395597886383</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3295416775992251</v>
+        <v>0.328919500412377</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4700631843992515</v>
+        <v>0.4693038665201504</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -5468,19 +5468,19 @@
         <v>141333</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123496</v>
+        <v>123749</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>161737</v>
+        <v>161235</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3617983581439909</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3161381300973383</v>
+        <v>0.3167841976534613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4140296300382758</v>
+        <v>0.412744922631942</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>39877</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28982</v>
+        <v>29118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>52307</v>
+        <v>53800</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2065946725289408</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1501495435134699</v>
+        <v>0.1508547624541083</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2709879272884874</v>
+        <v>0.2787253003885298</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -5518,19 +5518,19 @@
         <v>32363</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22408</v>
+        <v>22775</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43610</v>
+        <v>44057</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1637660843978992</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1133899477832627</v>
+        <v>0.1152447171005311</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2206769832338802</v>
+        <v>0.2229390583400963</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -5539,19 +5539,19 @@
         <v>72240</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>58452</v>
+        <v>58783</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>90125</v>
+        <v>88168</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1849283623798646</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1496325043522309</v>
+        <v>0.1504786444950294</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2307107091471322</v>
+        <v>0.2257009220953724</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>21674</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12557</v>
+        <v>13969</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>32116</v>
+        <v>31580</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1122894855096459</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06505374947178005</v>
+        <v>0.07236843652547885</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1663845437855955</v>
+        <v>0.1636104020286026</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5589,19 +5589,19 @@
         <v>14097</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8150</v>
+        <v>7378</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23079</v>
+        <v>22252</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07133465093038936</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04124120801824852</v>
+        <v>0.03733657066609223</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1167856847747934</v>
+        <v>0.112601363794491</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -5610,19 +5610,19 @@
         <v>35771</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25156</v>
+        <v>25863</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48998</v>
+        <v>49261</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09157107785671764</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06439658760279381</v>
+        <v>0.06620653950817514</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1254290772135629</v>
+        <v>0.1261036302423707</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>231877</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>204178</v>
+        <v>203142</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>264011</v>
+        <v>259881</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1637159969347149</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1441592188926724</v>
+        <v>0.1434280426678312</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1864038083341645</v>
+        <v>0.1834879635290947</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>194</v>
@@ -5735,19 +5735,19 @@
         <v>201358</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>175249</v>
+        <v>177471</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>225433</v>
+        <v>231375</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1952977525799169</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1699746193485351</v>
+        <v>0.1721300760769519</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2186486657587757</v>
+        <v>0.2244121103818098</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>403</v>
@@ -5756,19 +5756,19 @@
         <v>433234</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>395555</v>
+        <v>399714</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>475085</v>
+        <v>474772</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1770207916454566</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1616246848774632</v>
+        <v>0.1633243522366516</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1941210375084838</v>
+        <v>0.1939930317614597</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>255044</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>226028</v>
+        <v>224683</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>284888</v>
+        <v>285401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1800731570620527</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1595861792960646</v>
+        <v>0.1586364022959</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2011444835171799</v>
+        <v>0.2015063921979406</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>172</v>
@@ -5806,19 +5806,19 @@
         <v>173548</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>153210</v>
+        <v>151737</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>200489</v>
+        <v>199926</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1683254564803527</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1485991268363606</v>
+        <v>0.1471702013652353</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1944554513850539</v>
+        <v>0.1939088506515694</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>409</v>
@@ -5827,19 +5827,19 @@
         <v>428593</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>389150</v>
+        <v>393661</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>465652</v>
+        <v>467254</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1751240736001101</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1590078883761533</v>
+        <v>0.1608508956664771</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1902665219645787</v>
+        <v>0.1909213989610786</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>475576</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>441510</v>
+        <v>442158</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>514968</v>
+        <v>517607</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3357789076133201</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3117264246921225</v>
+        <v>0.3121843210828368</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3635915534661086</v>
+        <v>0.365454459007458</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>340</v>
@@ -5877,19 +5877,19 @@
         <v>343633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>314973</v>
+        <v>313566</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>378116</v>
+        <v>373810</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3332912493100101</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3054937691914756</v>
+        <v>0.3041293946127258</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3667369327225529</v>
+        <v>0.3625599045895463</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>790</v>
@@ -5898,19 +5898,19 @@
         <v>819209</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>773019</v>
+        <v>769479</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>865110</v>
+        <v>868224</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3347309043481489</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3158575286521669</v>
+        <v>0.3144110253134574</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3534862529397798</v>
+        <v>0.3547586775693034</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>306976</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>274901</v>
+        <v>276962</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>340099</v>
+        <v>341707</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2167395107041246</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1940929048184969</v>
+        <v>0.1955479613335865</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2401255124686613</v>
+        <v>0.241261215674916</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>208</v>
@@ -5948,19 +5948,19 @@
         <v>216918</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>189651</v>
+        <v>192754</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>244829</v>
+        <v>244512</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2103900371232051</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1839432684857892</v>
+        <v>0.1869527191795771</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2374610677528828</v>
+        <v>0.2371535884445631</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>492</v>
@@ -5969,19 +5969,19 @@
         <v>523894</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>484451</v>
+        <v>480814</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>571006</v>
+        <v>565479</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2140645979011612</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1979478320298521</v>
+        <v>0.1964619417588837</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2333144314607687</v>
+        <v>0.2310564237507007</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>146863</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>124468</v>
+        <v>124494</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>172969</v>
+        <v>170184</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1036924276857878</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08788035890290266</v>
+        <v>0.08789853571113092</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1221243396624207</v>
+        <v>0.1201578564676433</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>93</v>
@@ -6019,19 +6019,19 @@
         <v>95572</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>77063</v>
+        <v>78480</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>115891</v>
+        <v>116133</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09269550450651526</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07474344201998682</v>
+        <v>0.07611817263751772</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1124029352328652</v>
+        <v>0.1126383474287603</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>230</v>
@@ -6040,19 +6040,19 @@
         <v>242435</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>214344</v>
+        <v>214286</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>274768</v>
+        <v>275953</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09905963250512323</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08758166460461871</v>
+        <v>0.08755766105185835</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1122708988258791</v>
+        <v>0.1127553389436217</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>42554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30632</v>
+        <v>30576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53385</v>
+        <v>54013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4324374110835153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3112803748096521</v>
+        <v>0.310711189335427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5425078727818394</v>
+        <v>0.5488881595886809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -6406,19 +6406,19 @@
         <v>36128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28575</v>
+        <v>27922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45083</v>
+        <v>44254</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4179606540621882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3305891666606697</v>
+        <v>0.3230331426512916</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5215693759320328</v>
+        <v>0.51197874459524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -6427,19 +6427,19 @@
         <v>78681</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65604</v>
+        <v>64843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93366</v>
+        <v>92827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4256676562857348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3549181218526711</v>
+        <v>0.3508042916042813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5051104597800762</v>
+        <v>0.5021973739562953</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>15857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8522</v>
+        <v>8553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29089</v>
+        <v>28274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1611362213113457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.086597287980021</v>
+        <v>0.08691925358202271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2956085684884457</v>
+        <v>0.2873244114211461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -6477,19 +6477,19 @@
         <v>17093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11645</v>
+        <v>10961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25184</v>
+        <v>24862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1977480827479743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1347185535920012</v>
+        <v>0.1268086825028777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2913558107365498</v>
+        <v>0.2876260785527858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -6498,19 +6498,19 @@
         <v>32949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23564</v>
+        <v>23229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47547</v>
+        <v>46351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1782569980330353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1274820234952223</v>
+        <v>0.1256681120278636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2572285527886902</v>
+        <v>0.2507583928269524</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>22721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14198</v>
+        <v>14488</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32431</v>
+        <v>32592</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2308975388941546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1442803555542144</v>
+        <v>0.1472276406987475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3295675249665945</v>
+        <v>0.3312018513977609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -6548,19 +6548,19 @@
         <v>18188</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12224</v>
+        <v>11822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25310</v>
+        <v>25104</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2104200928891455</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1414172957383149</v>
+        <v>0.1367730264249506</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2928144672382445</v>
+        <v>0.2904264763039464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -6569,19 +6569,19 @@
         <v>40910</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30634</v>
+        <v>30419</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52516</v>
+        <v>53113</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2213216865030095</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1657314738989675</v>
+        <v>0.1645670000608132</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2841149700323769</v>
+        <v>0.2873410198408729</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>15223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9163</v>
+        <v>9280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24239</v>
+        <v>25270</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1546965617470216</v>
+        <v>0.1546965617470217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09311078219356281</v>
+        <v>0.09430830073411713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2463180994510479</v>
+        <v>0.2567922242927744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6619,19 +6619,19 @@
         <v>10057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5585</v>
+        <v>5881</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15621</v>
+        <v>15711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1163512636078665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06460701410172175</v>
+        <v>0.06803477300722374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1807247215724026</v>
+        <v>0.1817570081969233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -6640,19 +6640,19 @@
         <v>25280</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16863</v>
+        <v>16325</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35023</v>
+        <v>34728</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1367651793478112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09122823982645459</v>
+        <v>0.0883165050816425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1894735853627345</v>
+        <v>0.1878815890429844</v>
       </c>
     </row>
     <row r="8">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6844</v>
+        <v>6531</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02083226696396291</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06954452788279875</v>
+        <v>0.06637212725032614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -6690,19 +6690,19 @@
         <v>4972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11140</v>
+        <v>11216</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05751990669282532</v>
+        <v>0.05751990669282533</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01988067666150581</v>
+        <v>0.01981303788708508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1288731543801049</v>
+        <v>0.1297528708631356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6711,19 +6711,19 @@
         <v>7022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2836</v>
+        <v>3152</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14140</v>
+        <v>16388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03798847983040933</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01534531379567677</v>
+        <v>0.01705336249795503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07649684824145754</v>
+        <v>0.08865712301308157</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>22259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14070</v>
+        <v>14499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31602</v>
+        <v>31805</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3025760338029627</v>
+        <v>0.3025760338029628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1912619285745794</v>
+        <v>0.1970898479815918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4295750435976473</v>
+        <v>0.4323327522994762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -6836,19 +6836,19 @@
         <v>23304</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16989</v>
+        <v>17112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30853</v>
+        <v>31068</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3486444686346112</v>
+        <v>0.3486444686346111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2541663882469422</v>
+        <v>0.2560060099107725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4615951527207217</v>
+        <v>0.4648040397733555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -6857,19 +6857,19 @@
         <v>45563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34967</v>
+        <v>33796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57204</v>
+        <v>56686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3245070950095146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2490407514348307</v>
+        <v>0.240699418045205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4074180432994674</v>
+        <v>0.4037257666489935</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>15111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8929</v>
+        <v>8689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23046</v>
+        <v>23059</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2054094085724386</v>
+        <v>0.2054094085724387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1213771393381317</v>
+        <v>0.1181183972395518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3132647738376616</v>
+        <v>0.3134452011565961</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -6907,19 +6907,19 @@
         <v>8386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4433</v>
+        <v>4757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13985</v>
+        <v>13784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.125458037696605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06632405593253679</v>
+        <v>0.07116592201571192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2092249812331358</v>
+        <v>0.2062184516841915</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -6928,19 +6928,19 @@
         <v>23497</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15749</v>
+        <v>15536</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32251</v>
+        <v>32830</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1673482412105933</v>
+        <v>0.1673482412105932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1121662662216325</v>
+        <v>0.1106480930916839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2296954283347294</v>
+        <v>0.2338230975220783</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>16438</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9633</v>
+        <v>9455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25265</v>
+        <v>24843</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2234389261495578</v>
+        <v>0.2234389261495579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1309400807048979</v>
+        <v>0.1285248378384289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.343432546780005</v>
+        <v>0.3377024240963191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6978,19 +6978,19 @@
         <v>16425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11074</v>
+        <v>10968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22973</v>
+        <v>22575</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2457330797875206</v>
+        <v>0.2457330797875205</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1656695035155304</v>
+        <v>0.1640911778266118</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3437032455695517</v>
+        <v>0.3377388664638347</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -6999,19 +6999,19 @@
         <v>32863</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24069</v>
+        <v>23906</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44373</v>
+        <v>43377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2340521464547231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1714207704056794</v>
+        <v>0.170263718725356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3160282529299578</v>
+        <v>0.3089386825641231</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>14847</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7931</v>
+        <v>8137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24903</v>
+        <v>23734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2018204875797951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1078015405841766</v>
+        <v>0.1106033679493186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3385124257960844</v>
+        <v>0.3226163988968022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -7049,19 +7049,19 @@
         <v>15115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9266</v>
+        <v>9517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22962</v>
+        <v>22772</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2261368689662738</v>
+        <v>0.2261368689662737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1386254548947469</v>
+        <v>0.1423760634241186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3435332124404801</v>
+        <v>0.3406913747531277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -7070,19 +7070,19 @@
         <v>29962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20575</v>
+        <v>20411</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41581</v>
+        <v>41262</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.213396397429078</v>
+        <v>0.2133963974290779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1465357409996287</v>
+        <v>0.1453723903778382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.296145644231139</v>
+        <v>0.2938764225923688</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>4911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1678</v>
+        <v>1704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11700</v>
+        <v>12092</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06675514389524569</v>
+        <v>0.0667551438952457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02280553361519414</v>
+        <v>0.02316701683257979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1590455782409665</v>
+        <v>0.1643703464502639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7120,19 +7120,19 @@
         <v>3611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7964</v>
+        <v>7538</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05402754491498958</v>
+        <v>0.05402754491498956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02048048992030679</v>
+        <v>0.02031423349586418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1191481768441468</v>
+        <v>0.1127809886701961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -7141,19 +7141,19 @@
         <v>8522</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3974</v>
+        <v>4190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16249</v>
+        <v>16519</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06069611989609117</v>
+        <v>0.06069611989609115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02830342656139876</v>
+        <v>0.02984112268628201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1157266822832626</v>
+        <v>0.1176539820751435</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>17493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9673</v>
+        <v>9499</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27585</v>
+        <v>28280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2523647309459403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1395386376007418</v>
+        <v>0.1370324510475231</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3979502667073562</v>
+        <v>0.4079695856951694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7266,19 +7266,19 @@
         <v>3065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7040</v>
+        <v>7437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.109718602052655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.029687659350964</v>
+        <v>0.0296048844485416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2520411575021835</v>
+        <v>0.2662636541832468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -7287,19 +7287,19 @@
         <v>20558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12604</v>
+        <v>11798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33038</v>
+        <v>32794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2113948302448601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1296099090266836</v>
+        <v>0.1213158529353082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3397214764663167</v>
+        <v>0.337218825559478</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>7054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3007</v>
+        <v>2571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15863</v>
+        <v>14395</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1017568237595102</v>
+        <v>0.1017568237595101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04338593094390204</v>
+        <v>0.03709459619506207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2288501374588609</v>
+        <v>0.2076636820047907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7337,19 +7337,19 @@
         <v>4120</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1698</v>
+        <v>1429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7847</v>
+        <v>7886</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1475003697688541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06079710430564381</v>
+        <v>0.0511752505827113</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2809462656060586</v>
+        <v>0.282347010239181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -7358,19 +7358,19 @@
         <v>11173</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5860</v>
+        <v>6120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18519</v>
+        <v>18503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.114894989879112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06026226800404837</v>
+        <v>0.06293148658909589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1904236326553232</v>
+        <v>0.1902633358677891</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>31892</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22266</v>
+        <v>22283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41880</v>
+        <v>41966</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4600796838712788</v>
+        <v>0.4600796838712786</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3212217548757031</v>
+        <v>0.3214578576433668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6041762547158719</v>
+        <v>0.6054186585504441</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -7408,19 +7408,19 @@
         <v>9211</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5044</v>
+        <v>5217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14030</v>
+        <v>14115</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3297834812979624</v>
+        <v>0.3297834812979625</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1805779436546433</v>
+        <v>0.1867829813318679</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5022963405018162</v>
+        <v>0.5053463930918108</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -7429,19 +7429,19 @@
         <v>41103</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30628</v>
+        <v>30322</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52536</v>
+        <v>52765</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4226568493185783</v>
+        <v>0.4226568493185782</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3149426117383435</v>
+        <v>0.3117942618375336</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5402182838939971</v>
+        <v>0.5425757943317363</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>10772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5569</v>
+        <v>5070</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19011</v>
+        <v>19325</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1554058291332519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08033694196078223</v>
+        <v>0.07313604325712965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2742615039010889</v>
+        <v>0.2787836578972253</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -7479,19 +7479,19 @@
         <v>9222</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4741</v>
+        <v>4687</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15529</v>
+        <v>15610</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3301817520585765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1697506382331058</v>
+        <v>0.1678126105214556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5559780541364704</v>
+        <v>0.5588898500019165</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -7500,19 +7500,19 @@
         <v>19995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11905</v>
+        <v>13048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29990</v>
+        <v>31537</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2056038419552267</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1224203929326921</v>
+        <v>0.1341745051141098</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.308382620943192</v>
+        <v>0.324293781471451</v>
       </c>
     </row>
     <row r="20">
@@ -7532,16 +7532,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7505</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03039293229001873</v>
+        <v>0.03039293229001872</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.108262352893132</v>
+        <v>0.1139655428276845</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -7550,19 +7550,19 @@
         <v>2313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5917</v>
+        <v>5825</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08281579482195202</v>
+        <v>0.08281579482195203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02390561827927182</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2118417678986459</v>
+        <v>0.2085540626676206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7571,19 +7571,19 @@
         <v>4420</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1555</v>
+        <v>1497</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9749</v>
+        <v>9730</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04544948860222293</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0159853017083423</v>
+        <v>0.01538993480071565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.100252486974827</v>
+        <v>0.1000524914625543</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>34048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24122</v>
+        <v>24010</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46687</v>
+        <v>46211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2544529742505913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1802754319912613</v>
+        <v>0.179434123823753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3489095080788676</v>
+        <v>0.3453558365050127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -7696,19 +7696,19 @@
         <v>23986</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16412</v>
+        <v>16796</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33260</v>
+        <v>33375</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2094881379467093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1433359158313901</v>
+        <v>0.146693881119888</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2904793138306211</v>
+        <v>0.2914828078162541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -7717,19 +7717,19 @@
         <v>58034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44203</v>
+        <v>44697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72113</v>
+        <v>72384</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2337186764217287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1780185902693704</v>
+        <v>0.1800047559251043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2904159767183024</v>
+        <v>0.2915096243756299</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>19316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11004</v>
+        <v>11641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29692</v>
+        <v>30120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1443540193149684</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08224091240959699</v>
+        <v>0.0869971370208488</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2219021574598789</v>
+        <v>0.2250955996851137</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -7767,19 +7767,19 @@
         <v>11634</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7077</v>
+        <v>6497</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18696</v>
+        <v>17959</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1016040864913161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06180912004998333</v>
+        <v>0.05674181774080376</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1632808771673089</v>
+        <v>0.1568508859227499</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -7788,19 +7788,19 @@
         <v>30949</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21689</v>
+        <v>21466</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43903</v>
+        <v>44057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1246410633211099</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08734746283143573</v>
+        <v>0.08644714586064042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1768077902755416</v>
+        <v>0.1774282598437098</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>50341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38201</v>
+        <v>38035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63391</v>
+        <v>63536</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3762172891082316</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2854948546151209</v>
+        <v>0.284252781263847</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4737452906514831</v>
+        <v>0.4748294776769013</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -7838,19 +7838,19 @@
         <v>48812</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39031</v>
+        <v>39685</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57555</v>
+        <v>58160</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4263082904154135</v>
+        <v>0.4263082904154136</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3408848759025901</v>
+        <v>0.346589872344506</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5026629622732962</v>
+        <v>0.5079516117136547</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -7859,19 +7859,19 @@
         <v>99153</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>83481</v>
+        <v>84590</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115553</v>
+        <v>115416</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3993153769702659</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3361999178883974</v>
+        <v>0.3406636953515728</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.46536042528072</v>
+        <v>0.4648093456439248</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>25814</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17179</v>
+        <v>17842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37708</v>
+        <v>38602</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1929174495232241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1283818941681053</v>
+        <v>0.1333397593097623</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2818078521178647</v>
+        <v>0.2884887217210461</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -7909,19 +7909,19 @@
         <v>20921</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14006</v>
+        <v>14426</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28736</v>
+        <v>29724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1827137119302313</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.122320392375316</v>
+        <v>0.1259944192924984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.250967580644313</v>
+        <v>0.2595985264845808</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7930,19 +7930,19 @@
         <v>46735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35334</v>
+        <v>34847</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60565</v>
+        <v>59459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1882122765122326</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1422990669654536</v>
+        <v>0.140339194477527</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2439115317032829</v>
+        <v>0.2394561869512065</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>4290</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12710</v>
+        <v>11743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03205826780298483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006414646702383525</v>
+        <v>0.006217835318966447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09498835438871139</v>
+        <v>0.08776101752068173</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -7980,19 +7980,19 @@
         <v>9147</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4338</v>
+        <v>4566</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15511</v>
+        <v>15552</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07988577321632957</v>
+        <v>0.0798857732163296</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03788464710875023</v>
+        <v>0.03987967995360099</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1354704343956828</v>
+        <v>0.1358294758031169</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -8001,19 +8001,19 @@
         <v>13437</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7805</v>
+        <v>7075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23387</v>
+        <v>22400</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05411260677466282</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03143166916715388</v>
+        <v>0.02849134574409599</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09418726671992327</v>
+        <v>0.09021061467208821</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>10615</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4812</v>
+        <v>5207</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19272</v>
+        <v>19329</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1126076760034124</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05104777476727214</v>
+        <v>0.05524331455376631</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2044421274793219</v>
+        <v>0.2050510091517704</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -8126,19 +8126,19 @@
         <v>12741</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7820</v>
+        <v>7971</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18833</v>
+        <v>19446</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1484148561067636</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09108679845454822</v>
+        <v>0.09285336265373452</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2193826808302982</v>
+        <v>0.2265249594302165</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -8147,19 +8147,19 @@
         <v>23356</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15848</v>
+        <v>15575</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32911</v>
+        <v>33782</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1296746290387792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08798791426767659</v>
+        <v>0.08647441379306237</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1827279559694571</v>
+        <v>0.1875604103174826</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>9761</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3767</v>
+        <v>3934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21038</v>
+        <v>20674</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1035451981707037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03995705497010947</v>
+        <v>0.04173619450046899</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2231860625576687</v>
+        <v>0.2193180572938447</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -8197,19 +8197,19 @@
         <v>12367</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7478</v>
+        <v>7606</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19549</v>
+        <v>19919</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1440618300484904</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08710744286473869</v>
+        <v>0.0886028764486456</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2277206288163839</v>
+        <v>0.232032410312986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -8218,19 +8218,19 @@
         <v>22128</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13982</v>
+        <v>13558</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34562</v>
+        <v>35605</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1228568404562327</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07762775270856843</v>
+        <v>0.0752735607488647</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1918935177054179</v>
+        <v>0.197685338592072</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>33707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22744</v>
+        <v>21846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46939</v>
+        <v>45222</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3575784486701789</v>
+        <v>0.3575784486701788</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2412746677732518</v>
+        <v>0.2317565666025973</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4979520747256716</v>
+        <v>0.4797332380005143</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -8268,19 +8268,19 @@
         <v>25300</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18256</v>
+        <v>18833</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33470</v>
+        <v>33692</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2947053428594127</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2126610924179119</v>
+        <v>0.2193808711076352</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.389874216155428</v>
+        <v>0.3924630991018658</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -8289,19 +8289,19 @@
         <v>59006</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45523</v>
+        <v>46554</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>74168</v>
+        <v>75940</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3276109298384022</v>
+        <v>0.3276109298384023</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.252752220083088</v>
+        <v>0.2584742214379205</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.411789716129384</v>
+        <v>0.4216265081069039</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>24238</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15514</v>
+        <v>15564</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34781</v>
+        <v>35486</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2571331307033805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1645838619802556</v>
+        <v>0.1651120185063822</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3689734048977876</v>
+        <v>0.3764499220546621</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -8339,19 +8339,19 @@
         <v>22955</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15710</v>
+        <v>15918</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29773</v>
+        <v>30848</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2673899653015569</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1830031588028106</v>
+        <v>0.1854254545725496</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3468093741782791</v>
+        <v>0.3593400849896639</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -8360,19 +8360,19 @@
         <v>47193</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35496</v>
+        <v>36199</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60880</v>
+        <v>60345</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2620218964166632</v>
+        <v>0.2620218964166631</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.197079501343086</v>
+        <v>0.2009798610689616</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3380135584779987</v>
+        <v>0.3350439853075681</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>15943</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8120</v>
+        <v>8078</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30203</v>
+        <v>31321</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1691355464523246</v>
+        <v>0.1691355464523247</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08613697550023396</v>
+        <v>0.08569325551130949</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3204045892533681</v>
+        <v>0.332268415994143</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8410,19 +8410,19 @@
         <v>12485</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7183</v>
+        <v>6919</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20972</v>
+        <v>21426</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1454280056837764</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08366694131404903</v>
+        <v>0.08059384838070173</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2442928365265792</v>
+        <v>0.2495801420075223</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -8431,19 +8431,19 @@
         <v>28428</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18042</v>
+        <v>16916</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42696</v>
+        <v>43240</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1578357042499227</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1001711423687324</v>
+        <v>0.09392215996604671</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2370526850761326</v>
+        <v>0.2400760887674087</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>126969</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>103694</v>
+        <v>106158</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>148450</v>
+        <v>149610</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.270515364409907</v>
+        <v>0.2705153644099071</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2209269847861495</v>
+        <v>0.2261755648886146</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3162812382069775</v>
+        <v>0.318752638628766</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>123</v>
@@ -8556,19 +8556,19 @@
         <v>99223</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>84223</v>
+        <v>85834</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>116629</v>
+        <v>116302</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2600481914714245</v>
+        <v>0.2600481914714244</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2207356837553106</v>
+        <v>0.2249555755888794</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3056644440248341</v>
+        <v>0.3048074711649297</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>225</v>
@@ -8577,19 +8577,19 @@
         <v>226193</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>198565</v>
+        <v>198877</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>253053</v>
+        <v>253198</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2658218044871161</v>
+        <v>0.2658218044871162</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2333543876373334</v>
+        <v>0.2337202117466171</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2973886216315987</v>
+        <v>0.2975590823750645</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>67097</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>50914</v>
+        <v>49892</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>87096</v>
+        <v>86774</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.142955264712586</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1084746196495096</v>
+        <v>0.1062974491673893</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1855631529955555</v>
+        <v>0.1848775154676131</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>72</v>
@@ -8627,19 +8627,19 @@
         <v>53600</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42453</v>
+        <v>42951</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>65859</v>
+        <v>66148</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.140475537800775</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1112634577581631</v>
+        <v>0.1125663025551588</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1726053620805364</v>
+        <v>0.173363620902434</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>126</v>
@@ -8648,19 +8648,19 @@
         <v>120697</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>100256</v>
+        <v>100315</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>142166</v>
+        <v>143309</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1418433363130893</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1178214090139018</v>
+        <v>0.1178906132640895</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1670738064322783</v>
+        <v>0.1684164320344476</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>155098</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>133142</v>
+        <v>132943</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>180050</v>
+        <v>180838</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3304460340398254</v>
+        <v>0.3304460340398255</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2836665422051938</v>
+        <v>0.2832440522703671</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3836075951054291</v>
+        <v>0.3852857541883646</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>161</v>
@@ -8698,19 +8698,19 @@
         <v>117937</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103981</v>
+        <v>102716</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>135219</v>
+        <v>135054</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3090926330164686</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2725160633672809</v>
+        <v>0.2692013361410184</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3543868693753714</v>
+        <v>0.3539550663275849</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>289</v>
@@ -8719,19 +8719,19 @@
         <v>273035</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>245843</v>
+        <v>244332</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>301418</v>
+        <v>303835</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.320871006680715</v>
+        <v>0.3208710066807151</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2889152104776034</v>
+        <v>0.2871387235935641</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3542263925993519</v>
+        <v>0.3570674412428869</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>90895</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>72455</v>
+        <v>72873</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>110558</v>
+        <v>111169</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1936564259289123</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1543706211695204</v>
+        <v>0.1552603073288756</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2355511630641847</v>
+        <v>0.2368519878225774</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -8769,19 +8769,19 @@
         <v>78270</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64071</v>
+        <v>63470</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93423</v>
+        <v>94530</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2051335049586387</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1679195269533658</v>
+        <v>0.1663446641129847</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2448457556472834</v>
+        <v>0.2477463138471943</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>172</v>
@@ -8790,19 +8790,19 @@
         <v>169165</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>147062</v>
+        <v>148522</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196178</v>
+        <v>200720</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1988028354208756</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1728279729357465</v>
+        <v>0.1745431176431468</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2305482476524653</v>
+        <v>0.2358869962329178</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>29301</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17928</v>
+        <v>17783</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>45247</v>
+        <v>46750</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06242691090876924</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03819602872690036</v>
+        <v>0.0378881182863709</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09640066166961732</v>
+        <v>0.0996044745396493</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>37</v>
@@ -8840,19 +8840,19 @@
         <v>32528</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23058</v>
+        <v>23688</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>43262</v>
+        <v>45306</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08525013275269322</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06043036552628299</v>
+        <v>0.06208355198795285</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1133834811017296</v>
+        <v>0.1187400606067276</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>57</v>
@@ -8861,19 +8861,19 @@
         <v>61829</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>46656</v>
+        <v>47687</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>80585</v>
+        <v>83123</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.07266101709820395</v>
+        <v>0.07266101709820397</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05483031716944788</v>
+        <v>0.05604226129365299</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09470342337731398</v>
+        <v>0.09768631006590872</v>
       </c>
     </row>
     <row r="39">
